--- a/test_cases/TC_03.xlsx
+++ b/test_cases/TC_03.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/TestingAplicaciones-BeSharps-TPO/test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1DFA173-0090-AB43-B81B-2CC1F45B2617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38C29D-FB2E-CA4A-8818-77CBEA363D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15320" xr2:uid="{8E05AFCE-D8A7-0B4D-A2B8-5F5AA55B2674}"/>
+    <workbookView xWindow="6260" yWindow="500" windowWidth="22540" windowHeight="15260" xr2:uid="{76EEE24C-B6F6-4E23-B852-D96A168311C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,26 +35,463 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="110">
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>User can change his info and password after creating a new account and loggin in successfully</t>
+  </si>
+  <si>
+    <t>User Stories covered</t>
+  </si>
+  <si>
+    <t>PE-53</t>
+  </si>
+  <si>
+    <t>Automation Status</t>
+  </si>
+  <si>
+    <t>Not Automated</t>
+  </si>
+  <si>
+    <t>Step #</t>
+  </si>
+  <si>
+    <t>Step Details</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>User select "change account data"</t>
+  </si>
+  <si>
+    <t>Site should open</t>
+  </si>
+  <si>
+    <t>System requiers Email and Password</t>
+  </si>
+  <si>
+    <t>The User Already possess an account</t>
+  </si>
+  <si>
+    <t>User insert Email and Password</t>
+  </si>
+  <si>
+    <t>Email and Password are correct</t>
+  </si>
+  <si>
+    <t>System validates data</t>
+  </si>
+  <si>
+    <t>Key validated</t>
+  </si>
+  <si>
+    <t>System allow access to account</t>
+  </si>
+  <si>
+    <t>The system records the data and saves it</t>
+  </si>
+  <si>
+    <t>User select "change account info"</t>
+  </si>
+  <si>
+    <t>System show "Update your account" page</t>
+  </si>
+  <si>
+    <t>User change "Government ID"</t>
+  </si>
+  <si>
+    <t>User enter new ID</t>
+  </si>
+  <si>
+    <t>User add Secondary Email</t>
+  </si>
+  <si>
+    <t>User can add seconday Email</t>
+  </si>
+  <si>
+    <t>User change "Date of birth"</t>
+  </si>
+  <si>
+    <t>Date of birth changed</t>
+  </si>
+  <si>
+    <t>User enters "Current Password"</t>
+  </si>
+  <si>
+    <t>System message "Password Correct"</t>
+  </si>
+  <si>
+    <t>User enters "New Password"</t>
+  </si>
+  <si>
+    <t>System message "New PasswordCorrect"</t>
+  </si>
+  <si>
+    <t>User enters New Password again in "Confirm New Password"</t>
+  </si>
+  <si>
+    <t>System message "New Password Correct"</t>
+  </si>
+  <si>
+    <t>System option "Sign up for Newsletter"</t>
+  </si>
+  <si>
+    <t>System check option</t>
+  </si>
+  <si>
+    <t>System option "Receive special offers from our partners"</t>
+  </si>
+  <si>
+    <t>User "Save changes"</t>
+  </si>
+  <si>
+    <t>System save changes of user account</t>
+  </si>
+  <si>
+    <t>Extensions</t>
+  </si>
+  <si>
+    <t>1-A</t>
+  </si>
+  <si>
+    <t>System message "Create Account"</t>
+  </si>
+  <si>
+    <t>Site "Create account" opened</t>
+  </si>
+  <si>
+    <t>4-A</t>
+  </si>
+  <si>
+    <t>System message "Incorrect Email or Password"</t>
+  </si>
+  <si>
+    <t>Message correctly displayed</t>
+  </si>
+  <si>
+    <t>7-B</t>
+  </si>
+  <si>
+    <t>User can't change ID</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>User don't add secondary Email</t>
+  </si>
+  <si>
+    <t>Secondary Email don't added</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>User don't change date of birth</t>
+  </si>
+  <si>
+    <t>Date of birth remains the same</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>User password is incorrect</t>
+  </si>
+  <si>
+    <t>System send message "Your current Password is incorrect"</t>
+  </si>
+  <si>
+    <t>11B</t>
+  </si>
+  <si>
+    <t>User "New Password" is the same as "Current Password"</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>User enters a diferent Passsword than "New Password"</t>
+  </si>
+  <si>
+    <t>System message "Please confirm New Password"</t>
+  </si>
+  <si>
+    <t>User select Check or Uncheked Option</t>
+  </si>
+  <si>
+    <t>The option remains marked or unmarked</t>
+  </si>
+  <si>
+    <t>T+G1:K27est Case ID</t>
+  </si>
+  <si>
+    <t>TC-03</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Account Info available to be modified by user</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Arguello Elias</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>QA Tester’s Log</t>
+  </si>
+  <si>
+    <t>Review comments from Jane incorprated in version 2.1</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>TC Priority (High, Normal, Low)</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>S #</t>
+  </si>
+  <si>
+    <t>Prerequisites:</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Access to Google Chrome Browser</t>
+  </si>
+  <si>
+    <t>Email = TestMail.3@example.co.uk</t>
+  </si>
+  <si>
+    <t>Internet Access</t>
+  </si>
+  <si>
+    <t>Password: Password12!</t>
+  </si>
+  <si>
+    <t>User Already has an  Account successfully created</t>
+  </si>
+  <si>
+    <t>Secondary Email: TestMail.4@exampe.co.uk</t>
+  </si>
+  <si>
+    <t>The User can Login into his acount</t>
+  </si>
+  <si>
+    <t>New Date Of Birth = 12/05/1996</t>
+  </si>
+  <si>
+    <t>New Address = 1836 NW 11th St</t>
+  </si>
+  <si>
+    <t>Phone = +1 305-434-9601</t>
+  </si>
+  <si>
+    <t>Current Password: Password12!</t>
+  </si>
+  <si>
+    <t>New Password: Password13!</t>
+  </si>
+  <si>
+    <t>Confirm New Password: Password13!</t>
+  </si>
+  <si>
+    <t>User "Sign up for newsletter"</t>
+  </si>
+  <si>
+    <t>User "Receibe special offers from our partners"</t>
+  </si>
+  <si>
+    <t>New Id: 36955982</t>
+  </si>
+  <si>
+    <t>System message "Please enter a different Password than your current password"</t>
+  </si>
+  <si>
+    <t>Lucas Von Elm</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Executions</t>
+  </si>
+  <si>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Regression 2</t>
+  </si>
+  <si>
+    <t>Regression 3</t>
+  </si>
+  <si>
+    <t>Regression 4</t>
+  </si>
+  <si>
+    <t>Tester: Lucas Von Elm</t>
+  </si>
+  <si>
+    <t>Tester: Jane Williams</t>
+  </si>
+  <si>
+    <t>Tester: Krivitzki, Matias</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defects Created</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -62,15 +499,430 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{CB6C2F26-D6CC-4327-B153-84EC0660F78D}"/>
+    <cellStyle name="Note 2" xfId="1" xr:uid="{843A40BD-8CD1-4A2F-A895-926BAE526175}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,13 +1233,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832ABE00-1582-3D48-AD5E-39C993D2C7DB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620F67E1-AA31-468E-B23D-8ABF18DB872D}">
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="33">
+        <v>1</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="35">
+        <v>3</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="33">
+        <v>2</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="35">
+        <v>3</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A10" s="33">
+        <v>3</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="35">
+        <v>8</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A11" s="33">
+        <v>4</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="35">
+        <v>9</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="35">
+        <v>4</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="35">
+        <v>5</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="35">
+        <v>6</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="35">
+        <v>7</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="D16" s="35">
+        <v>8</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D17" s="36">
+        <v>9</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="D18" s="36">
+        <v>10</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D19" s="36">
+        <v>7</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>1</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="H26" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>2</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="H27" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="O27" s="41"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>3</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="H28" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="43"/>
+      <c r="L28" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="M28" s="43"/>
+      <c r="N28" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="O28" s="43"/>
+    </row>
+    <row r="29" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
+        <v>4</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="H29" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="O29" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
+        <v>5</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="H30" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N30" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O30" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
+        <v>6</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="H31" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O31" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
+        <v>7</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="H32" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L32" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M32" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N32" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O32" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="17">
+        <v>8</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="H33" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M33" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N33" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O33" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
+        <v>9</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="38"/>
+      <c r="H34" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M34" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N34" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O34" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17">
+        <v>10</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="38"/>
+      <c r="H35" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M35" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N35" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O35" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17">
+        <v>11</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="H36" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L36" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M36" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N36" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O36" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17">
+        <v>12</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="H37" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L37" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M37" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N37" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O37" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17">
+        <v>13</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="H38" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L38" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M38" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N38" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O38" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
+        <v>14</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="38"/>
+      <c r="H39" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J39" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K39" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L39" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M39" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N39" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O39" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17">
+        <v>15</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="H40" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J40" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K40" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L40" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M40" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N40" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O40" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="H41" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K41" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L41" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M41" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N41" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O41" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="H42" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J42" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K42" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L42" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M42" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N42" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O42" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="H43" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K43" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L43" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M43" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N43" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O43" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="H44" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K44" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L44" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M44" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N44" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O44" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="38"/>
+    </row>
+    <row r="46" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="H46" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="O46" s="47"/>
+    </row>
+    <row r="47" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+    </row>
+    <row r="48" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="38"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+    </row>
+    <row r="49" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="38"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+    </row>
+    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17">
+        <v>13</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="38"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17">
+        <v>14</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="86">
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>